--- a/work/Csanady2002.xlsx
+++ b/work/Csanady2002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwambaug\git\httk\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90B3186-8DEE-4247-907D-85B1C6BC8611}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5985660-112B-4D21-8346-971D5BB8B745}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="360" windowWidth="20460" windowHeight="8715" xr2:uid="{12C5CE42-659C-45CA-9E1C-0311029A4BB2}"/>
+    <workbookView xWindow="2430" yWindow="2430" windowWidth="20460" windowHeight="11490" xr2:uid="{12C5CE42-659C-45CA-9E1C-0311029A4BB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 2" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,6 @@
     <t>Placenta</t>
   </si>
   <si>
-    <t>Adrenal Gland</t>
-  </si>
-  <si>
     <t>0.96-1.12</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>0.99-2.11</t>
+  </si>
+  <si>
+    <t>Adrenals</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +527,7 @@
         <v>0.09</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -544,7 +544,7 @@
         <v>0.17</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -561,7 +561,7 @@
         <v>0.38</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -578,7 +578,7 @@
         <v>0.17</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -595,7 +595,7 @@
         <v>0.31</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -623,7 +623,7 @@
         <v>0.34</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>1.82</v>
@@ -640,7 +640,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -663,10 +663,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -709,7 +709,7 @@
         <v>0.25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -721,7 +721,7 @@
         <v>0.06</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -738,7 +738,7 @@
         <v>0.22</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -750,7 +750,7 @@
         <v>0.46</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4">
         <v>4</v>
@@ -767,7 +767,7 @@
         <v>0.18</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -779,7 +779,7 @@
         <v>0.13</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -796,7 +796,7 @@
         <v>0.15</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -808,7 +808,7 @@
         <v>0.15</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -825,7 +825,7 @@
         <v>0.17</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -837,7 +837,7 @@
         <v>0.11</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -865,7 +865,7 @@
         <v>0.15</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10">
         <v>1.63</v>
@@ -882,7 +882,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10">
         <v>3</v>
